--- a/시장분석용_정보/시장분석용_4313037000.xlsx
+++ b/시장분석용_정보/시장분석용_4313037000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="39">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -536,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV55"/>
+  <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,64 +588,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>1017</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -705,10 +609,10 @@
         <v>3038208907</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>4313037000</v>
@@ -717,7 +621,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>23467945</v>
@@ -729,7 +633,7 @@
         <v>1123500</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -741,105 +645,57 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>55.5</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>13.35</v>
+      </c>
+      <c r="X2">
         <v>31.15</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>68.84999999999999</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>55.5</v>
       </c>
-      <c r="Y2">
-        <v>31.15</v>
-      </c>
-      <c r="Z2">
-        <v>13.35</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
-        <v>0</v>
+        <v>28.93</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>15.58</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>55.5</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>13.35</v>
-      </c>
-      <c r="AN2">
-        <v>31.15</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>55.5</v>
-      </c>
-      <c r="AT2">
-        <v>28.93</v>
-      </c>
-      <c r="AU2">
-        <v>15.58</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1018</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202001</v>
@@ -851,10 +707,10 @@
         <v>2048212685</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>4313037000</v>
@@ -863,7 +719,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L3">
         <v>21153643</v>
@@ -875,117 +731,69 @@
         <v>146680</v>
       </c>
       <c r="O3">
-        <v>67.37</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>32.63</v>
+        <v>0</v>
       </c>
       <c r="Q3">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="R3">
+        <v>17.54</v>
+      </c>
+      <c r="S3">
+        <v>2.23</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>39.69</v>
+      </c>
+      <c r="V3">
+        <v>20.12</v>
+      </c>
+      <c r="W3">
+        <v>15.36</v>
+      </c>
+      <c r="X3">
+        <v>4.5</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>2.82</v>
+      </c>
+      <c r="AC3">
+        <v>23.64</v>
+      </c>
+      <c r="AD3">
+        <v>55.53</v>
+      </c>
+      <c r="AE3">
         <v>18.02</v>
       </c>
-      <c r="R3">
-        <v>2.45</v>
-      </c>
-      <c r="S3">
-        <v>1.46</v>
-      </c>
-      <c r="T3">
-        <v>16.76</v>
-      </c>
-      <c r="U3">
-        <v>60.85</v>
-      </c>
-      <c r="V3">
-        <v>0.46</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>43.09</v>
-      </c>
-      <c r="Y3">
-        <v>20.43</v>
-      </c>
-      <c r="Z3">
-        <v>36.48</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AH3">
-        <v>17.54</v>
-      </c>
-      <c r="AI3">
-        <v>2.23</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>39.69</v>
-      </c>
-      <c r="AL3">
-        <v>20.12</v>
-      </c>
-      <c r="AM3">
-        <v>15.36</v>
-      </c>
-      <c r="AN3">
-        <v>4.5</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>2.82</v>
-      </c>
-      <c r="AS3">
-        <v>23.64</v>
-      </c>
-      <c r="AT3">
-        <v>55.53</v>
-      </c>
-      <c r="AU3">
-        <v>18.02</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2340</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202002</v>
@@ -997,10 +805,10 @@
         <v>2048212685</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <v>4313037000</v>
@@ -1009,7 +817,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>11989400</v>
@@ -1021,117 +829,69 @@
         <v>138336</v>
       </c>
       <c r="O4">
-        <v>74.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>25.51</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="R4">
-        <v>3.32</v>
+        <v>59.73</v>
       </c>
       <c r="S4">
-        <v>30.26</v>
+        <v>7.11</v>
       </c>
       <c r="T4">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>36.71</v>
+        <v>4.14</v>
       </c>
       <c r="W4">
         <v>25.51</v>
       </c>
       <c r="X4">
-        <v>33.65</v>
+        <v>0.46</v>
       </c>
       <c r="Y4">
-        <v>58.6</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>6.62</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>25.74</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>3.04</v>
-      </c>
-      <c r="AH4">
-        <v>59.73</v>
-      </c>
-      <c r="AI4">
-        <v>7.11</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>4.14</v>
-      </c>
-      <c r="AM4">
-        <v>25.51</v>
-      </c>
-      <c r="AN4">
-        <v>0.46</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>3.96</v>
-      </c>
-      <c r="AS4">
-        <v>6.62</v>
-      </c>
-      <c r="AT4">
-        <v>25.74</v>
-      </c>
-      <c r="AU4">
-        <v>4.14</v>
-      </c>
-      <c r="AV4">
         <v>59.53</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3662</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202003</v>
@@ -1143,10 +903,10 @@
         <v>3038208907</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>4313037000</v>
@@ -1155,7 +915,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L5">
         <v>11699424</v>
@@ -1167,7 +927,7 @@
         <v>318471</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1179,28 +939,28 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>19.31</v>
+        <v>26.46</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>50.95</v>
+        <v>3.69</v>
       </c>
       <c r="V5">
-        <v>29.74</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>80.45</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="Y5">
-        <v>19.55</v>
+        <v>3.69</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>26.46</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1212,72 +972,24 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>43.04</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>26.46</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>3.69</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>69.84999999999999</v>
-      </c>
-      <c r="AO5">
-        <v>3.69</v>
-      </c>
-      <c r="AP5">
-        <v>26.46</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>26.8</v>
-      </c>
-      <c r="AU5">
-        <v>43.04</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>3663</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202003</v>
@@ -1289,10 +1001,10 @@
         <v>2048212685</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>4313037000</v>
@@ -1301,7 +1013,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>19571397</v>
@@ -1313,117 +1025,69 @@
         <v>254324</v>
       </c>
       <c r="O6">
-        <v>65.92</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>34.08</v>
+        <v>0</v>
       </c>
       <c r="Q6">
+        <v>8.93</v>
+      </c>
+      <c r="R6">
+        <v>42.16</v>
+      </c>
+      <c r="S6">
+        <v>10.14</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>20.57</v>
+      </c>
+      <c r="W6">
         <v>15.73</v>
       </c>
-      <c r="R6">
-        <v>2.16</v>
-      </c>
-      <c r="S6">
-        <v>18.66</v>
-      </c>
-      <c r="T6">
-        <v>23.75</v>
-      </c>
-      <c r="U6">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="V6">
-        <v>11.95</v>
-      </c>
-      <c r="W6">
+      <c r="X6">
+        <v>2.47</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>6.76</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.53</v>
+      </c>
+      <c r="AC6">
+        <v>38.06</v>
+      </c>
+      <c r="AD6">
+        <v>17.83</v>
+      </c>
+      <c r="AE6">
+        <v>18.47</v>
+      </c>
+      <c r="AF6">
         <v>18.35</v>
       </c>
-      <c r="X6">
-        <v>4.97</v>
-      </c>
-      <c r="Y6">
-        <v>85.83</v>
-      </c>
-      <c r="Z6">
-        <v>7.1</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>2.1</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>8.93</v>
-      </c>
-      <c r="AH6">
-        <v>42.16</v>
-      </c>
-      <c r="AI6">
-        <v>10.14</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>20.57</v>
-      </c>
-      <c r="AM6">
-        <v>15.73</v>
-      </c>
-      <c r="AN6">
-        <v>2.47</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>6.76</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0.53</v>
-      </c>
-      <c r="AS6">
-        <v>38.06</v>
-      </c>
-      <c r="AT6">
-        <v>17.83</v>
-      </c>
-      <c r="AU6">
-        <v>18.47</v>
-      </c>
-      <c r="AV6">
-        <v>18.35</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>4988</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202004</v>
@@ -1435,10 +1099,10 @@
         <v>2048212685</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>4313037000</v>
@@ -1447,7 +1111,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L7">
         <v>28040298</v>
@@ -1459,117 +1123,69 @@
         <v>801771</v>
       </c>
       <c r="O7">
-        <v>76.84</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>23.16</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>35.64</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>24.05</v>
       </c>
       <c r="S7">
-        <v>35.64</v>
+        <v>0.03</v>
       </c>
       <c r="T7">
-        <v>11.61</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
+        <v>12.47</v>
+      </c>
+      <c r="W7">
+        <v>10.69</v>
+      </c>
+      <c r="X7">
+        <v>17.12</v>
+      </c>
+      <c r="Y7">
+        <v>0.03</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>12.47</v>
+      </c>
+      <c r="AC7">
+        <v>47.22</v>
+      </c>
+      <c r="AD7">
+        <v>10.69</v>
+      </c>
+      <c r="AE7">
         <v>29.59</v>
       </c>
-      <c r="W7">
-        <v>23.16</v>
-      </c>
-      <c r="X7">
-        <v>27.81</v>
-      </c>
-      <c r="Y7">
-        <v>72.16</v>
-      </c>
-      <c r="Z7">
-        <v>0.03</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>35.64</v>
-      </c>
-      <c r="AH7">
-        <v>24.05</v>
-      </c>
-      <c r="AI7">
-        <v>0.03</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>12.47</v>
-      </c>
-      <c r="AM7">
-        <v>10.69</v>
-      </c>
-      <c r="AN7">
-        <v>17.12</v>
-      </c>
-      <c r="AO7">
-        <v>0.03</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>12.47</v>
-      </c>
-      <c r="AS7">
-        <v>47.22</v>
-      </c>
-      <c r="AT7">
-        <v>10.69</v>
-      </c>
-      <c r="AU7">
-        <v>29.59</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>6320</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202005</v>
@@ -1581,10 +1197,10 @@
         <v>3038208907</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>4313037000</v>
@@ -1593,7 +1209,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>7261375</v>
@@ -1605,117 +1221,69 @@
         <v>478333</v>
       </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>100</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>58.19</v>
+      </c>
+      <c r="AD8">
         <v>41.81</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>58.19</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>100</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>100</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>58.19</v>
-      </c>
-      <c r="AT8">
-        <v>41.81</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>6321</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202005</v>
@@ -1727,10 +1295,10 @@
         <v>2048212685</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>4313037000</v>
@@ -1739,7 +1307,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L9">
         <v>17379943</v>
@@ -1751,117 +1319,69 @@
         <v>244307</v>
       </c>
       <c r="O9">
-        <v>23.98</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>76.02</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.54</v>
+        <v>2.35</v>
       </c>
       <c r="R9">
-        <v>2.67</v>
+        <v>41.59</v>
       </c>
       <c r="S9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>21.06</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>20.54</v>
       </c>
       <c r="W9">
-        <v>58.47</v>
+        <v>35.21</v>
       </c>
       <c r="X9">
-        <v>38.5</v>
+        <v>0.32</v>
       </c>
       <c r="Y9">
-        <v>40.64</v>
+        <v>0.18</v>
       </c>
       <c r="Z9">
-        <v>20.86</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>35.21</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>2.35</v>
-      </c>
-      <c r="AH9">
-        <v>41.59</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>20.54</v>
-      </c>
-      <c r="AM9">
-        <v>35.21</v>
-      </c>
-      <c r="AN9">
-        <v>0.32</v>
-      </c>
-      <c r="AO9">
-        <v>0.18</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0.5</v>
-      </c>
-      <c r="AS9">
-        <v>2.35</v>
-      </c>
-      <c r="AT9">
-        <v>35.21</v>
-      </c>
-      <c r="AU9">
-        <v>20.7</v>
-      </c>
-      <c r="AV9">
         <v>41.07</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>7656</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202006</v>
@@ -1873,10 +1393,10 @@
         <v>3038208907</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>4313037000</v>
@@ -1885,7 +1405,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>10293350</v>
@@ -1897,7 +1417,7 @@
         <v>350000</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0.43</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1906,31 +1426,31 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>26.53</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>24.49</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>58.82</v>
       </c>
       <c r="V10">
-        <v>47.47</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>40.75</v>
       </c>
       <c r="X10">
-        <v>47.47</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>51.02</v>
+        <v>16.81</v>
       </c>
       <c r="Z10">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1939,75 +1459,27 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>42.44</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>40.75</v>
       </c>
       <c r="AE10">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>58.82</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>40.75</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>16.81</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>42.44</v>
-      </c>
-      <c r="AT10">
-        <v>40.75</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>7657</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202006</v>
@@ -2019,10 +1491,10 @@
         <v>2048212685</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>4313037000</v>
@@ -2031,7 +1503,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <v>17628217</v>
@@ -2043,117 +1515,69 @@
         <v>163419</v>
       </c>
       <c r="O11">
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>49.25</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>37.88</v>
+        <v>2.92</v>
       </c>
       <c r="R11">
-        <v>4.07</v>
+        <v>43.29</v>
       </c>
       <c r="S11">
-        <v>23.11</v>
+        <v>3.06</v>
       </c>
       <c r="T11">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>23.53</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>31.84</v>
       </c>
       <c r="W11">
-        <v>11.36</v>
+        <v>17.53</v>
       </c>
       <c r="X11">
-        <v>33.46</v>
+        <v>1.36</v>
       </c>
       <c r="Y11">
-        <v>45.31</v>
+        <v>0.09</v>
       </c>
       <c r="Z11">
-        <v>21.23</v>
+        <v>0.87</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>43.59</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>19.18</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>31.84</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>2.92</v>
-      </c>
-      <c r="AH11">
-        <v>43.29</v>
-      </c>
-      <c r="AI11">
-        <v>3.06</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>31.84</v>
-      </c>
-      <c r="AM11">
-        <v>17.53</v>
-      </c>
-      <c r="AN11">
-        <v>1.36</v>
-      </c>
-      <c r="AO11">
-        <v>0.09</v>
-      </c>
-      <c r="AP11">
-        <v>0.87</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>43.59</v>
-      </c>
-      <c r="AS11">
-        <v>4.43</v>
-      </c>
-      <c r="AT11">
-        <v>19.18</v>
-      </c>
-      <c r="AU11">
-        <v>31.84</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>8989</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202007</v>
@@ -2165,10 +1589,10 @@
         <v>3038208907</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I12">
         <v>4313037000</v>
@@ -2177,7 +1601,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L12">
         <v>9925717</v>
@@ -2189,13 +1613,13 @@
         <v>270857</v>
       </c>
       <c r="O12">
-        <v>93.67</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>6.33</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>20.83</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2204,102 +1628,54 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>31.65</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>62.03</v>
+        <v>34.28</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>6.33</v>
+        <v>44.88</v>
       </c>
       <c r="X12">
-        <v>37.97</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>27.74</v>
+        <v>0</v>
       </c>
       <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>34.28</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
       <c r="AD12">
-        <v>0</v>
+        <v>44.88</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>20.83</v>
       </c>
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>20.83</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>34.28</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>44.88</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>34.28</v>
-      </c>
-      <c r="AT12">
-        <v>44.88</v>
-      </c>
-      <c r="AU12">
-        <v>20.83</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>8990</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202007</v>
@@ -2311,10 +1687,10 @@
         <v>2048212685</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>4313037000</v>
@@ -2323,7 +1699,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L13">
         <v>7866931</v>
@@ -2335,117 +1711,69 @@
         <v>90244</v>
       </c>
       <c r="O13">
-        <v>54.37</v>
+        <v>0.72</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>46.61</v>
+      </c>
+      <c r="S13">
+        <v>3.43</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>45.63</v>
       </c>
-      <c r="Q13">
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>3.61</v>
+      </c>
+      <c r="Y13">
+        <v>0.39</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>7.29</v>
+      </c>
+      <c r="AC13">
+        <v>0.1</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>45.63</v>
       </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="S13">
-        <v>3.48</v>
-      </c>
-      <c r="T13">
-        <v>0.36</v>
-      </c>
-      <c r="U13">
-        <v>45.98</v>
-      </c>
-      <c r="V13">
-        <v>0.55</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>45.82</v>
-      </c>
-      <c r="Y13">
-        <v>51.14</v>
-      </c>
-      <c r="Z13">
-        <v>3.04</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0.72</v>
-      </c>
       <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>46.61</v>
-      </c>
-      <c r="AI13">
-        <v>3.43</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>45.63</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>3.61</v>
-      </c>
-      <c r="AO13">
-        <v>0.39</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>7.29</v>
-      </c>
-      <c r="AS13">
-        <v>0.1</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>45.63</v>
-      </c>
-      <c r="AV13">
         <v>46.6</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>10327</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202008</v>
@@ -2457,10 +1785,10 @@
         <v>3038208907</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I14">
         <v>4313037000</v>
@@ -2469,7 +1797,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <v>18044191</v>
@@ -2481,40 +1809,40 @@
         <v>442000</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>22.16</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>17.25</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>42.62</v>
+        <v>27.51</v>
       </c>
       <c r="T14">
-        <v>39.96</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0.17</v>
+        <v>5.46</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>44.66</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>21.75</v>
+        <v>5.46</v>
       </c>
       <c r="Z14">
-        <v>78.25</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -2523,75 +1851,27 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>27.72</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>42.96</v>
       </c>
       <c r="AE14">
-        <v>22.16</v>
+        <v>23.87</v>
       </c>
       <c r="AF14">
-        <v>0.2</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>27.51</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>5.46</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>44.66</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>5.46</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>27.72</v>
-      </c>
-      <c r="AT14">
-        <v>42.96</v>
-      </c>
-      <c r="AU14">
-        <v>23.87</v>
-      </c>
-      <c r="AV14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>10328</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202008</v>
@@ -2603,10 +1883,10 @@
         <v>2048212685</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>4313037000</v>
@@ -2615,7 +1895,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L15">
         <v>12728216</v>
@@ -2627,117 +1907,69 @@
         <v>118914</v>
       </c>
       <c r="O15">
-        <v>23.91</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>76.09</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>24.03</v>
+        <v>0.2</v>
       </c>
       <c r="R15">
-        <v>0.98</v>
+        <v>28.98</v>
       </c>
       <c r="S15">
-        <v>6.23</v>
+        <v>1.87</v>
       </c>
       <c r="T15">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>3.3</v>
+        <v>12.41</v>
       </c>
       <c r="V15">
-        <v>12.97</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>52.06</v>
+        <v>53.09</v>
       </c>
       <c r="X15">
-        <v>43.43</v>
+        <v>3.44</v>
       </c>
       <c r="Y15">
-        <v>55.68</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>14.93</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>48.31</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0.2</v>
-      </c>
-      <c r="AH15">
-        <v>28.98</v>
-      </c>
-      <c r="AI15">
-        <v>1.87</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>12.41</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>53.09</v>
-      </c>
-      <c r="AN15">
-        <v>3.44</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>5.25</v>
-      </c>
-      <c r="AS15">
-        <v>14.93</v>
-      </c>
-      <c r="AT15">
-        <v>48.31</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
         <v>31.5</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>11667</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202009</v>
@@ -2749,10 +1981,10 @@
         <v>3038208907</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>4313037000</v>
@@ -2761,7 +1993,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L16">
         <v>26589315</v>
@@ -2773,117 +2005,69 @@
         <v>1025108</v>
       </c>
       <c r="O16">
-        <v>87.31999999999999</v>
+        <v>12.68</v>
       </c>
       <c r="P16">
-        <v>12.68</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.68</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>81.47</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>5.85</v>
+      </c>
+      <c r="AD16">
+        <v>24.39</v>
+      </c>
+      <c r="AE16">
         <v>10.97</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>70.5</v>
-      </c>
-      <c r="V16">
-        <v>5.85</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>28.53</v>
-      </c>
-      <c r="Z16">
-        <v>12.68</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
+      <c r="AF16">
         <v>58.79</v>
       </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>12.68</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>5.85</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>81.47</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>5.85</v>
-      </c>
-      <c r="AT16">
-        <v>24.39</v>
-      </c>
-      <c r="AU16">
-        <v>10.97</v>
-      </c>
-      <c r="AV16">
-        <v>58.79</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>11668</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202009</v>
@@ -2895,10 +2079,10 @@
         <v>2048212685</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>4313037000</v>
@@ -2907,7 +2091,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L17">
         <v>9400060</v>
@@ -2919,7 +2103,7 @@
         <v>141304</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2928,108 +2112,60 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>9.74</v>
+        <v>38.19</v>
       </c>
       <c r="S17">
-        <v>81.2</v>
+        <v>1.28</v>
       </c>
       <c r="T17">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>7.06</v>
+        <v>43.09</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="X17">
-        <v>83.39</v>
+        <v>9.06</v>
       </c>
       <c r="Y17">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>11.31</v>
+        <v>0.22</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>51.7</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>38.19</v>
-      </c>
-      <c r="AI17">
-        <v>1.28</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>43.09</v>
-      </c>
-      <c r="AM17">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="AN17">
-        <v>9.06</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0.22</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>4.59</v>
-      </c>
-      <c r="AS17">
-        <v>1.6</v>
-      </c>
-      <c r="AT17">
-        <v>51.7</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
         <v>41.9</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>13006</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202010</v>
@@ -3041,10 +2177,10 @@
         <v>3038208907</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <v>4313037000</v>
@@ -3053,7 +2189,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L18">
         <v>12945663</v>
@@ -3065,7 +2201,7 @@
         <v>468600</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>37.36</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3077,28 +2213,28 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>25.61</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>74.39</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>28.16</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>34.48</v>
       </c>
       <c r="X18">
-        <v>27.74</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>46.65</v>
+        <v>28.16</v>
       </c>
       <c r="Z18">
-        <v>25.61</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -3110,72 +2246,24 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>71.84</v>
       </c>
       <c r="AE18">
-        <v>37.36</v>
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>28.16</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>34.48</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>28.16</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>71.84</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>13007</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202010</v>
@@ -3187,10 +2275,10 @@
         <v>2048212685</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <v>4313037000</v>
@@ -3199,7 +2287,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L19">
         <v>19152794</v>
@@ -3211,117 +2299,69 @@
         <v>196853</v>
       </c>
       <c r="O19">
-        <v>83.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>16.04</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>2.06</v>
+        <v>43.33</v>
       </c>
       <c r="S19">
-        <v>1.01</v>
+        <v>0.08</v>
       </c>
       <c r="T19">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>61.53</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>34.72</v>
+        <v>0.26</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>40.88</v>
       </c>
       <c r="X19">
-        <v>2.61</v>
+        <v>15.45</v>
       </c>
       <c r="Y19">
-        <v>51.63</v>
+        <v>0.04</v>
       </c>
       <c r="Z19">
-        <v>22.06</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>23.71</v>
+        <v>0.53</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>23.69</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>38.08</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>43.33</v>
-      </c>
-      <c r="AI19">
-        <v>0.08</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0.26</v>
-      </c>
-      <c r="AM19">
-        <v>40.88</v>
-      </c>
-      <c r="AN19">
-        <v>15.45</v>
-      </c>
-      <c r="AO19">
-        <v>0.04</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0.53</v>
-      </c>
-      <c r="AS19">
-        <v>23.69</v>
-      </c>
-      <c r="AT19">
-        <v>38.08</v>
-      </c>
-      <c r="AU19">
-        <v>13.8</v>
-      </c>
-      <c r="AV19">
         <v>23.85</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>14351</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202011</v>
@@ -3333,10 +2373,10 @@
         <v>3038208907</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I20">
         <v>4313037000</v>
@@ -3345,7 +2385,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L20">
         <v>7532013</v>
@@ -3357,7 +2397,7 @@
         <v>335750</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3369,28 +2409,28 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>44.68</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>55.32</v>
+        <v>18.92</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>81.08</v>
       </c>
       <c r="X20">
-        <v>55.32</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>18.92</v>
       </c>
       <c r="Z20">
-        <v>44.68</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -3402,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>81.08</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3410,64 +2450,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>18.92</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>81.08</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>18.92</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>81.08</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>14352</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202011</v>
@@ -3479,10 +2471,10 @@
         <v>2048212685</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>4313037000</v>
@@ -3491,7 +2483,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L21">
         <v>8707500</v>
@@ -3503,117 +2495,69 @@
         <v>54452</v>
       </c>
       <c r="O21">
-        <v>28.91</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>71.09</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>71.09</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>13.55</v>
+        <v>0.33</v>
       </c>
       <c r="S21">
-        <v>11.58</v>
+        <v>14.28</v>
       </c>
       <c r="T21">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>78.41</v>
       </c>
       <c r="X21">
-        <v>7.09</v>
+        <v>4.19</v>
       </c>
       <c r="Y21">
-        <v>53.95</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>38.97</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>22.27</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>74.92</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>2</v>
-      </c>
-      <c r="AH21">
-        <v>0.33</v>
-      </c>
-      <c r="AI21">
-        <v>14.28</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0.79</v>
-      </c>
-      <c r="AM21">
-        <v>78.41</v>
-      </c>
-      <c r="AN21">
-        <v>4.19</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>2.43</v>
-      </c>
-      <c r="AS21">
-        <v>22.27</v>
-      </c>
-      <c r="AT21">
-        <v>74.92</v>
-      </c>
-      <c r="AU21">
-        <v>0.09</v>
-      </c>
-      <c r="AV21">
         <v>0.28</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>15697</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202012</v>
@@ -3625,10 +2569,10 @@
         <v>3038208907</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I22">
         <v>4313037000</v>
@@ -3637,7 +2581,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>8413163</v>
@@ -3649,7 +2593,7 @@
         <v>382500</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3658,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>5.38</v>
       </c>
       <c r="S22">
-        <v>96.73</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>3.27</v>
+        <v>30.11</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>64.52</v>
       </c>
       <c r="X22">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>96.73</v>
+        <v>30.11</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3688,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>5.38</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>64.52</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3702,64 +2646,16 @@
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>5.38</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>30.11</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>64.52</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>30.11</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>5.38</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>64.52</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>15698</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202012</v>
@@ -3771,10 +2667,10 @@
         <v>2048212685</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>4313037000</v>
@@ -3783,7 +2679,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L23">
         <v>13925646</v>
@@ -3795,117 +2691,69 @@
         <v>105232</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="R23">
-        <v>2.7</v>
+        <v>78.62</v>
       </c>
       <c r="S23">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>21.81</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>37.11</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>35.82</v>
+        <v>1.63</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>14.55</v>
       </c>
       <c r="X23">
-        <v>48.25</v>
+        <v>0.68</v>
       </c>
       <c r="Y23">
-        <v>10.35</v>
+        <v>0.11</v>
       </c>
       <c r="Z23">
-        <v>41.4</v>
+        <v>0.44</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>11.81</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>55.73</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>4.51</v>
-      </c>
-      <c r="AH23">
-        <v>78.62</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>1.63</v>
-      </c>
-      <c r="AM23">
-        <v>14.55</v>
-      </c>
-      <c r="AN23">
-        <v>0.68</v>
-      </c>
-      <c r="AO23">
-        <v>0.11</v>
-      </c>
-      <c r="AP23">
-        <v>0.44</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>11.81</v>
-      </c>
-      <c r="AS23">
-        <v>30.8</v>
-      </c>
-      <c r="AT23">
-        <v>55.73</v>
-      </c>
-      <c r="AU23">
-        <v>1.1</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>17045</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202101</v>
@@ -3917,10 +2765,10 @@
         <v>2048212685</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>4313037000</v>
@@ -3929,7 +2777,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L24">
         <v>10872274</v>
@@ -3941,117 +2789,69 @@
         <v>92883</v>
       </c>
       <c r="O24">
-        <v>43.83</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>56.17</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>28.09</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>33.76</v>
+        <v>34.55</v>
       </c>
       <c r="S24">
-        <v>7.17</v>
+        <v>1.99</v>
       </c>
       <c r="T24">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1.03</v>
+        <v>2.79</v>
       </c>
       <c r="V24">
-        <v>28.55</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="X24">
-        <v>4.6</v>
+        <v>59.84</v>
       </c>
       <c r="Y24">
-        <v>91.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>40.93</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>56.81</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>34.55</v>
-      </c>
-      <c r="AI24">
-        <v>1.99</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>2.79</v>
-      </c>
-      <c r="AL24">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AM24">
-        <v>0.76</v>
-      </c>
-      <c r="AN24">
-        <v>59.84</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>1.77</v>
-      </c>
-      <c r="AS24">
-        <v>40.93</v>
-      </c>
-      <c r="AT24">
-        <v>56.81</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>18392</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202102</v>
@@ -4063,10 +2863,10 @@
         <v>3038208907</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I25">
         <v>4313037000</v>
@@ -4075,7 +2875,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L25">
         <v>10649141</v>
@@ -4087,117 +2887,69 @@
         <v>950000</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>100</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>100</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>68.42</v>
       </c>
-      <c r="Z25">
+      <c r="AD25">
         <v>31.58</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>100</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>68.42</v>
-      </c>
-      <c r="AT25">
-        <v>31.58</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>18393</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202102</v>
@@ -4209,10 +2961,10 @@
         <v>2048212685</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>4313037000</v>
@@ -4221,7 +2973,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L26">
         <v>14802265</v>
@@ -4233,117 +2985,69 @@
         <v>102243</v>
       </c>
       <c r="O26">
-        <v>79.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>20.96</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>20.96</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>58.56</v>
+        <v>70.28</v>
       </c>
       <c r="S26">
-        <v>13.71</v>
+        <v>6.36</v>
       </c>
       <c r="T26">
-        <v>6.05</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="V26">
-        <v>0.37</v>
+        <v>1.36</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X26">
-        <v>5.33</v>
+        <v>21.84</v>
       </c>
       <c r="Y26">
-        <v>47.94</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>46.73</v>
+        <v>0.05</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>16.18</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>53.9</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>70.28</v>
-      </c>
-      <c r="AI26">
-        <v>6.36</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0.05</v>
-      </c>
-      <c r="AL26">
-        <v>1.36</v>
-      </c>
-      <c r="AM26">
-        <v>0.1</v>
-      </c>
-      <c r="AN26">
-        <v>21.84</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0.05</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>16.18</v>
-      </c>
-      <c r="AS26">
-        <v>29.3</v>
-      </c>
-      <c r="AT26">
-        <v>53.9</v>
-      </c>
-      <c r="AU26">
-        <v>0.22</v>
-      </c>
-      <c r="AV26">
         <v>0.36</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>19743</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202103</v>
@@ -4355,10 +3059,10 @@
         <v>3038208907</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I27">
         <v>4313037000</v>
@@ -4367,7 +3071,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L27">
         <v>3263545</v>
@@ -4379,7 +3083,7 @@
         <v>322500</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -4388,43 +3092,43 @@
         <v>0</v>
       </c>
       <c r="R27">
+        <v>6.98</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>93.02</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
         <v>6.98</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>100</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
       <c r="AC27">
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>93.02</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -4432,64 +3136,16 @@
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>6.98</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>93.02</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>6.98</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>93.02</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>19744</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202103</v>
@@ -4501,10 +3157,10 @@
         <v>2048212685</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I28">
         <v>4313037000</v>
@@ -4513,7 +3169,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L28">
         <v>21379794</v>
@@ -4525,117 +3181,69 @@
         <v>123270</v>
       </c>
       <c r="O28">
-        <v>85.68000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="P28">
-        <v>14.32</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>14.32</v>
+        <v>0.67</v>
       </c>
       <c r="R28">
-        <v>1.29</v>
+        <v>73.95</v>
       </c>
       <c r="S28">
-        <v>42.2</v>
+        <v>3.44</v>
       </c>
       <c r="T28">
-        <v>39.94</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>1.93</v>
+        <v>0.82</v>
       </c>
       <c r="V28">
-        <v>0.32</v>
+        <v>4.56</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="X28">
-        <v>34.04</v>
+        <v>16</v>
       </c>
       <c r="Y28">
-        <v>33.51</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>32.45</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>19.86</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>76.63</v>
       </c>
       <c r="AE28">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
       </c>
-      <c r="AG28">
-        <v>0.67</v>
-      </c>
-      <c r="AH28">
-        <v>73.95</v>
-      </c>
-      <c r="AI28">
-        <v>3.44</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0.82</v>
-      </c>
-      <c r="AL28">
-        <v>4.56</v>
-      </c>
-      <c r="AM28">
-        <v>0.52</v>
-      </c>
-      <c r="AN28">
-        <v>16</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>3.5</v>
-      </c>
-      <c r="AS28">
-        <v>19.86</v>
-      </c>
-      <c r="AT28">
-        <v>76.63</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>21092</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202104</v>
@@ -4647,10 +3255,10 @@
         <v>3038208907</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I29">
         <v>4313037000</v>
@@ -4659,7 +3267,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L29">
         <v>18829868</v>
@@ -4671,40 +3279,40 @@
         <v>708600</v>
       </c>
       <c r="O29">
-        <v>74.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>25.4</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>25.4</v>
+        <v>38.46</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>16.93</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>35.9</v>
       </c>
       <c r="V29">
-        <v>57.66</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>25.64</v>
       </c>
       <c r="X29">
-        <v>57.66</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>16.93</v>
+        <v>35.9</v>
       </c>
       <c r="Z29">
-        <v>25.4</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -4716,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -4724,64 +3332,16 @@
       <c r="AF29">
         <v>0</v>
       </c>
-      <c r="AG29">
-        <v>38.46</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>35.9</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>25.64</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>35.9</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>21093</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202104</v>
@@ -4793,10 +3353,10 @@
         <v>2048212685</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>4313037000</v>
@@ -4805,7 +3365,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L30">
         <v>4281609</v>
@@ -4817,52 +3377,52 @@
         <v>28871</v>
       </c>
       <c r="O30">
-        <v>28.34</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>71.66</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>71.66</v>
+        <v>0.64</v>
       </c>
       <c r="R30">
-        <v>6.09</v>
+        <v>1.71</v>
       </c>
       <c r="S30">
-        <v>1.77</v>
+        <v>11.07</v>
       </c>
       <c r="T30">
-        <v>8.56</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>10.62</v>
+        <v>1.62</v>
       </c>
       <c r="V30">
-        <v>1.3</v>
+        <v>1.82</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="X30">
-        <v>88.65000000000001</v>
+        <v>80.92</v>
       </c>
       <c r="Y30">
-        <v>8.32</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>17.81</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -4870,64 +3430,16 @@
       <c r="AF30">
         <v>0</v>
       </c>
-      <c r="AG30">
-        <v>0.64</v>
-      </c>
-      <c r="AH30">
-        <v>1.71</v>
-      </c>
-      <c r="AI30">
-        <v>11.07</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>1.62</v>
-      </c>
-      <c r="AL30">
-        <v>1.82</v>
-      </c>
-      <c r="AM30">
-        <v>2.22</v>
-      </c>
-      <c r="AN30">
-        <v>80.92</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>17.81</v>
-      </c>
-      <c r="AS30">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AT30">
-        <v>72.98999999999999</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>22449</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>202105</v>
@@ -4939,10 +3451,10 @@
         <v>3038208907</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I31">
         <v>4313037000</v>
@@ -4951,7 +3463,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L31">
         <v>6368542</v>
@@ -4963,117 +3475,69 @@
         <v>314435</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>29.52</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
-        <v>77.22</v>
+        <v>0</v>
       </c>
       <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>70.48</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>29.52</v>
+      </c>
+      <c r="AD31">
+        <v>47.7</v>
+      </c>
+      <c r="AE31">
         <v>22.78</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>29.52</v>
-      </c>
-      <c r="Z31">
-        <v>70.48</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
       <c r="AF31">
         <v>0</v>
       </c>
-      <c r="AG31">
-        <v>29.52</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>70.48</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>29.52</v>
-      </c>
-      <c r="AT31">
-        <v>47.7</v>
-      </c>
-      <c r="AU31">
-        <v>22.78</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>22450</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>202105</v>
@@ -5085,10 +3549,10 @@
         <v>2048212685</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I32">
         <v>4313037000</v>
@@ -5097,7 +3561,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L32">
         <v>14345225</v>
@@ -5109,117 +3573,69 @@
         <v>62316</v>
       </c>
       <c r="O32">
-        <v>78.59999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="P32">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>32.36</v>
+        <v>41.19</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="T32">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>38.04</v>
+        <v>0.43</v>
       </c>
       <c r="V32">
-        <v>4.96</v>
+        <v>0.25</v>
       </c>
       <c r="W32">
-        <v>21.4</v>
+        <v>5.21</v>
       </c>
       <c r="X32">
-        <v>67.27</v>
+        <v>50.88</v>
       </c>
       <c r="Y32">
-        <v>7.24</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>4.09</v>
+        <v>0.14</v>
       </c>
       <c r="AA32">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>4.86</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>8.58</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="AE32">
-        <v>0.05</v>
+        <v>0.32</v>
       </c>
       <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>41.19</v>
-      </c>
-      <c r="AI32">
-        <v>1.99</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0.43</v>
-      </c>
-      <c r="AL32">
-        <v>0.25</v>
-      </c>
-      <c r="AM32">
-        <v>5.21</v>
-      </c>
-      <c r="AN32">
-        <v>50.88</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0.14</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>4.86</v>
-      </c>
-      <c r="AS32">
-        <v>8.58</v>
-      </c>
-      <c r="AT32">
-        <v>62.5</v>
-      </c>
-      <c r="AU32">
-        <v>0.32</v>
-      </c>
-      <c r="AV32">
         <v>23.6</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>23806</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>202106</v>
@@ -5231,10 +3647,10 @@
         <v>3038208907</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I33">
         <v>4313037000</v>
@@ -5243,7 +3659,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L33">
         <v>10476273</v>
@@ -5255,52 +3671,52 @@
         <v>306350</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>32.64</v>
+        <v>45.34</v>
       </c>
       <c r="V33">
-        <v>64.31</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>48.58</v>
       </c>
       <c r="X33">
-        <v>63.27</v>
+        <v>1.54</v>
       </c>
       <c r="Y33">
-        <v>1.03</v>
+        <v>45.34</v>
       </c>
       <c r="Z33">
-        <v>35.69</v>
+        <v>0</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>48.58</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -5308,64 +3724,16 @@
       <c r="AF33">
         <v>0</v>
       </c>
-      <c r="AG33">
-        <v>4.54</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>45.34</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AM33">
-        <v>48.58</v>
-      </c>
-      <c r="AN33">
-        <v>1.54</v>
-      </c>
-      <c r="AO33">
-        <v>45.34</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>1.54</v>
-      </c>
-      <c r="AS33">
-        <v>4.54</v>
-      </c>
-      <c r="AT33">
-        <v>48.58</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>23807</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>202106</v>
@@ -5377,10 +3745,10 @@
         <v>2048212685</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>4313037000</v>
@@ -5389,7 +3757,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L34">
         <v>21580596</v>
@@ -5401,117 +3769,69 @@
         <v>92503</v>
       </c>
       <c r="O34">
-        <v>85.90000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="P34">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>14.1</v>
+        <v>12.19</v>
       </c>
       <c r="R34">
-        <v>2.32</v>
+        <v>23.38</v>
       </c>
       <c r="S34">
-        <v>0.95</v>
+        <v>20.42</v>
       </c>
       <c r="T34">
-        <v>40.29</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>41.92</v>
+        <v>0.19</v>
       </c>
       <c r="V34">
-        <v>0.42</v>
+        <v>0.18</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="X34">
-        <v>37.46</v>
+        <v>39.37</v>
       </c>
       <c r="Y34">
-        <v>54.77</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>7.77</v>
+        <v>0.15</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>7.69</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>20.48</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>36.43</v>
       </c>
       <c r="AE34">
-        <v>0.47</v>
+        <v>11.75</v>
       </c>
       <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>12.19</v>
-      </c>
-      <c r="AH34">
-        <v>23.38</v>
-      </c>
-      <c r="AI34">
-        <v>20.42</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0.19</v>
-      </c>
-      <c r="AL34">
-        <v>0.18</v>
-      </c>
-      <c r="AM34">
-        <v>3.8</v>
-      </c>
-      <c r="AN34">
-        <v>39.37</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0.15</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>7.69</v>
-      </c>
-      <c r="AS34">
-        <v>20.48</v>
-      </c>
-      <c r="AT34">
-        <v>36.43</v>
-      </c>
-      <c r="AU34">
-        <v>11.75</v>
-      </c>
-      <c r="AV34">
         <v>23.5</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>25176</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>202107</v>
@@ -5523,10 +3843,10 @@
         <v>2048212685</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>4313037000</v>
@@ -5535,7 +3855,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L35">
         <v>25094708</v>
@@ -5547,117 +3867,69 @@
         <v>90667</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>0.03</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="R35">
-        <v>56.32</v>
+        <v>39.9</v>
       </c>
       <c r="S35">
-        <v>4.11</v>
+        <v>19.13</v>
       </c>
       <c r="T35">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>6.91</v>
+        <v>0.85</v>
       </c>
       <c r="V35">
-        <v>29.27</v>
+        <v>0.85</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="X35">
-        <v>69.78</v>
+        <v>34.31</v>
       </c>
       <c r="Y35">
-        <v>28.77</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1.45</v>
+        <v>0.44</v>
       </c>
       <c r="AA35">
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>14.47</v>
       </c>
       <c r="AE35">
-        <v>0.03</v>
+        <v>38.2</v>
       </c>
       <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>1.04</v>
-      </c>
-      <c r="AH35">
-        <v>39.9</v>
-      </c>
-      <c r="AI35">
-        <v>19.13</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>0.85</v>
-      </c>
-      <c r="AL35">
-        <v>0.85</v>
-      </c>
-      <c r="AM35">
-        <v>3.88</v>
-      </c>
-      <c r="AN35">
-        <v>34.31</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>0.44</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>2.38</v>
-      </c>
-      <c r="AS35">
-        <v>23.9</v>
-      </c>
-      <c r="AT35">
-        <v>14.47</v>
-      </c>
-      <c r="AU35">
-        <v>38.2</v>
-      </c>
-      <c r="AV35">
         <v>20.6</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>26538</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>202108</v>
@@ -5669,10 +3941,10 @@
         <v>3038208907</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I36">
         <v>4313037000</v>
@@ -5681,7 +3953,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L36">
         <v>3739766</v>
@@ -5693,7 +3965,7 @@
         <v>373315</v>
       </c>
       <c r="O36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -5711,22 +3983,22 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>80.36</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>19.64</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -5735,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>19.64</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>80.36</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -5746,64 +4018,16 @@
       <c r="AF36">
         <v>0</v>
       </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>80.36</v>
-      </c>
-      <c r="AN36">
-        <v>19.64</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>19.64</v>
-      </c>
-      <c r="AT36">
-        <v>80.36</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>26539</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>202108</v>
@@ -5815,10 +4039,10 @@
         <v>2048212685</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I37">
         <v>4313037000</v>
@@ -5827,7 +4051,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L37">
         <v>17768293</v>
@@ -5839,117 +4063,69 @@
         <v>68171</v>
       </c>
       <c r="O37">
-        <v>77.66</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>22.34</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>19.75</v>
+        <v>5.04</v>
       </c>
       <c r="R37">
-        <v>6.25</v>
+        <v>3.97</v>
       </c>
       <c r="S37">
-        <v>40.9</v>
+        <v>15.74</v>
       </c>
       <c r="T37">
-        <v>32.3</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="V37">
-        <v>0.7</v>
+        <v>0.04</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X37">
-        <v>39.2</v>
+        <v>73.75</v>
       </c>
       <c r="Y37">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>4.21</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="AC37">
-        <v>13.68</v>
+        <v>21.47</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>33.87</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>11.26</v>
       </c>
       <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>5.04</v>
-      </c>
-      <c r="AH37">
-        <v>3.97</v>
-      </c>
-      <c r="AI37">
-        <v>15.74</v>
-      </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0.25</v>
-      </c>
-      <c r="AL37">
-        <v>0.04</v>
-      </c>
-      <c r="AM37">
-        <v>1.21</v>
-      </c>
-      <c r="AN37">
-        <v>73.75</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>3.63</v>
-      </c>
-      <c r="AS37">
-        <v>21.47</v>
-      </c>
-      <c r="AT37">
-        <v>33.87</v>
-      </c>
-      <c r="AU37">
-        <v>11.26</v>
-      </c>
-      <c r="AV37">
         <v>29.77</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>27908</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>202109</v>
@@ -5961,10 +4137,10 @@
         <v>3038208907</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I38">
         <v>4313037000</v>
@@ -5973,7 +4149,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L38">
         <v>12968753</v>
@@ -5985,7 +4161,7 @@
         <v>585750</v>
       </c>
       <c r="O38">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -6003,22 +4179,22 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>25.61</v>
+        <v>58.33</v>
       </c>
       <c r="V38">
-        <v>74.39</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="X38">
-        <v>74.39</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="Z38">
-        <v>25.61</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -6030,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -6038,64 +4214,16 @@
       <c r="AF38">
         <v>0</v>
       </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>58.33</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38">
-        <v>41.67</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>58.33</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>41.67</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>27909</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>202109</v>
@@ -6107,10 +4235,10 @@
         <v>2048212685</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I39">
         <v>4313037000</v>
@@ -6119,7 +4247,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L39">
         <v>14585932</v>
@@ -6131,117 +4259,69 @@
         <v>73667</v>
       </c>
       <c r="O39">
-        <v>75.64</v>
+        <v>0.05</v>
       </c>
       <c r="P39">
-        <v>24.36</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>24.36</v>
+        <v>1.21</v>
       </c>
       <c r="R39">
-        <v>5.26</v>
+        <v>25.29</v>
       </c>
       <c r="S39">
-        <v>2.16</v>
+        <v>6.66</v>
       </c>
       <c r="T39">
-        <v>6.52</v>
+        <v>0.62</v>
       </c>
       <c r="U39">
-        <v>61.1</v>
+        <v>0.14</v>
       </c>
       <c r="V39">
-        <v>0.61</v>
+        <v>2.1</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X39">
-        <v>2.15</v>
+        <v>62.17</v>
       </c>
       <c r="Y39">
-        <v>63.88</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>33.98</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>32.12</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>26.66</v>
       </c>
       <c r="AE39">
-        <v>0.05</v>
+        <v>2.39</v>
       </c>
       <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>1.21</v>
-      </c>
-      <c r="AH39">
-        <v>25.29</v>
-      </c>
-      <c r="AI39">
-        <v>6.66</v>
-      </c>
-      <c r="AJ39">
-        <v>0.62</v>
-      </c>
-      <c r="AK39">
-        <v>0.14</v>
-      </c>
-      <c r="AL39">
-        <v>2.1</v>
-      </c>
-      <c r="AM39">
-        <v>1.76</v>
-      </c>
-      <c r="AN39">
-        <v>62.17</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>1.43</v>
-      </c>
-      <c r="AS39">
-        <v>32.12</v>
-      </c>
-      <c r="AT39">
-        <v>26.66</v>
-      </c>
-      <c r="AU39">
-        <v>2.39</v>
-      </c>
-      <c r="AV39">
         <v>37.4</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:32">
       <c r="A40" s="1">
         <v>29284</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>202110</v>
@@ -6253,10 +4333,10 @@
         <v>3038208907</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <v>4313037000</v>
@@ -6265,7 +4345,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L40">
         <v>6621924</v>
@@ -6277,37 +4357,37 @@
         <v>239600</v>
       </c>
       <c r="O40">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="R40">
-        <v>48.66</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>50.08</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>31.28</v>
       </c>
       <c r="V40">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="X40">
-        <v>98.75</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>1.25</v>
+        <v>31.28</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -6322,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>68.72</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -6330,64 +4410,16 @@
       <c r="AF40">
         <v>0</v>
       </c>
-      <c r="AG40">
-        <v>1.68</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>31.28</v>
-      </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
-      <c r="AM40">
-        <v>67.04000000000001</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>31.28</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <v>68.72</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-      <c r="AV40">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:32">
       <c r="A41" s="1">
         <v>29285</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>202110</v>
@@ -6399,10 +4431,10 @@
         <v>2048212685</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I41">
         <v>4313037000</v>
@@ -6411,7 +4443,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L41">
         <v>25068963</v>
@@ -6423,117 +4455,69 @@
         <v>145050</v>
       </c>
       <c r="O41">
-        <v>63.98</v>
+        <v>0.93</v>
       </c>
       <c r="P41">
-        <v>36.02</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="R41">
-        <v>22.3</v>
+        <v>0.31</v>
       </c>
       <c r="S41">
-        <v>0.66</v>
+        <v>1.14</v>
       </c>
       <c r="T41">
-        <v>1.22</v>
+        <v>0.41</v>
       </c>
       <c r="U41">
-        <v>24.96</v>
+        <v>0.08</v>
       </c>
       <c r="V41">
-        <v>36.67</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>14.19</v>
+        <v>38.62</v>
       </c>
       <c r="X41">
-        <v>23.79</v>
+        <v>56.49</v>
       </c>
       <c r="Y41">
-        <v>22.75</v>
+        <v>0.19</v>
       </c>
       <c r="Z41">
-        <v>53.46</v>
+        <v>0</v>
       </c>
       <c r="AA41">
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>37.95</v>
       </c>
       <c r="AE41">
-        <v>0.93</v>
+        <v>1.27</v>
       </c>
       <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>2.03</v>
-      </c>
-      <c r="AH41">
-        <v>0.31</v>
-      </c>
-      <c r="AI41">
-        <v>1.14</v>
-      </c>
-      <c r="AJ41">
-        <v>0.41</v>
-      </c>
-      <c r="AK41">
-        <v>0.08</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>38.62</v>
-      </c>
-      <c r="AN41">
-        <v>56.49</v>
-      </c>
-      <c r="AO41">
-        <v>0.19</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>1.16</v>
-      </c>
-      <c r="AS41">
-        <v>4.45</v>
-      </c>
-      <c r="AT41">
-        <v>37.95</v>
-      </c>
-      <c r="AU41">
-        <v>1.27</v>
-      </c>
-      <c r="AV41">
         <v>54.97</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:32">
       <c r="A42" s="1">
         <v>30661</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>202111</v>
@@ -6545,10 +4529,10 @@
         <v>3038208907</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I42">
         <v>4313037000</v>
@@ -6557,7 +4541,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L42">
         <v>11085009</v>
@@ -6569,7 +4553,7 @@
         <v>344093</v>
       </c>
       <c r="O42">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -6578,31 +4562,31 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>14.68</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42">
-        <v>36.94</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>14.48</v>
+        <v>16.97</v>
       </c>
       <c r="V42">
-        <v>33.91</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>39.74</v>
       </c>
       <c r="X42">
-        <v>66.09</v>
+        <v>43.29</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>16.97</v>
       </c>
       <c r="Z42">
-        <v>33.91</v>
+        <v>0</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -6611,10 +4595,10 @@
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>43.29</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>39.74</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -6622,64 +4606,16 @@
       <c r="AF42">
         <v>0</v>
       </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <v>16.97</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
-      <c r="AM42">
-        <v>39.74</v>
-      </c>
-      <c r="AN42">
-        <v>43.29</v>
-      </c>
-      <c r="AO42">
-        <v>16.97</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AS42">
-        <v>43.29</v>
-      </c>
-      <c r="AT42">
-        <v>39.74</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AV42">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:32">
       <c r="A43" s="1">
         <v>30662</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D43">
         <v>202111</v>
@@ -6691,10 +4627,10 @@
         <v>2048212685</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I43">
         <v>4313037000</v>
@@ -6703,7 +4639,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L43">
         <v>7767659</v>
@@ -6715,117 +4651,69 @@
         <v>27115</v>
       </c>
       <c r="O43">
-        <v>53.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P43">
-        <v>46.94</v>
+        <v>1.03</v>
       </c>
       <c r="Q43">
-        <v>46.94</v>
+        <v>0.26</v>
       </c>
       <c r="R43">
-        <v>19.49</v>
+        <v>2.39</v>
       </c>
       <c r="S43">
-        <v>12.73</v>
+        <v>13.57</v>
       </c>
       <c r="T43">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>16.31</v>
+        <v>3.77</v>
       </c>
       <c r="V43">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>6.59</v>
       </c>
       <c r="X43">
-        <v>20.87</v>
+        <v>69.52</v>
       </c>
       <c r="Y43">
-        <v>73.06999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="Z43">
-        <v>6.06</v>
+        <v>0.27</v>
       </c>
       <c r="AA43">
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>24.59</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>49.84</v>
       </c>
       <c r="AE43">
-        <v>0.6899999999999999</v>
+        <v>4.58</v>
       </c>
       <c r="AF43">
-        <v>1.03</v>
-      </c>
-      <c r="AG43">
-        <v>0.26</v>
-      </c>
-      <c r="AH43">
-        <v>2.39</v>
-      </c>
-      <c r="AI43">
-        <v>13.57</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>3.77</v>
-      </c>
-      <c r="AL43">
-        <v>2.17</v>
-      </c>
-      <c r="AM43">
-        <v>6.59</v>
-      </c>
-      <c r="AN43">
-        <v>69.52</v>
-      </c>
-      <c r="AO43">
-        <v>0.1</v>
-      </c>
-      <c r="AP43">
-        <v>0.27</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>5.87</v>
-      </c>
-      <c r="AS43">
-        <v>24.59</v>
-      </c>
-      <c r="AT43">
-        <v>49.84</v>
-      </c>
-      <c r="AU43">
-        <v>4.58</v>
-      </c>
-      <c r="AV43">
         <v>14.75</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:32">
       <c r="A44" s="1">
         <v>32048</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <v>202112</v>
@@ -6837,10 +4725,10 @@
         <v>3038208907</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I44">
         <v>4313037000</v>
@@ -6849,7 +4737,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L44">
         <v>9659713</v>
@@ -6861,7 +4749,7 @@
         <v>440750</v>
       </c>
       <c r="O44">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -6879,19 +4767,19 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>48.28</v>
       </c>
       <c r="V44">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>51.72</v>
       </c>
       <c r="X44">
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>100</v>
+        <v>48.28</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -6906,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>51.72</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -6914,64 +4802,16 @@
       <c r="AF44">
         <v>0</v>
       </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
-      <c r="AK44">
-        <v>48.28</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>51.72</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>48.28</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AS44">
-        <v>0</v>
-      </c>
-      <c r="AT44">
-        <v>51.72</v>
-      </c>
-      <c r="AU44">
-        <v>0</v>
-      </c>
-      <c r="AV44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:32">
       <c r="A45" s="1">
         <v>32049</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D45">
         <v>202112</v>
@@ -6983,10 +4823,10 @@
         <v>2048212685</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I45">
         <v>4313037000</v>
@@ -6995,7 +4835,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K45" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L45">
         <v>16862623</v>
@@ -7007,117 +4847,69 @@
         <v>60174</v>
       </c>
       <c r="O45">
-        <v>100</v>
+        <v>0.13</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="R45">
-        <v>13.66</v>
+        <v>27.57</v>
       </c>
       <c r="S45">
-        <v>32.42</v>
+        <v>8.15</v>
       </c>
       <c r="T45">
-        <v>4.68</v>
+        <v>0.18</v>
       </c>
       <c r="U45">
-        <v>46.79</v>
+        <v>0.18</v>
       </c>
       <c r="V45">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>30.75</v>
       </c>
       <c r="X45">
-        <v>4.73</v>
+        <v>32.66</v>
       </c>
       <c r="Y45">
-        <v>60.61</v>
+        <v>0.2</v>
       </c>
       <c r="Z45">
-        <v>34.66</v>
+        <v>0.18</v>
       </c>
       <c r="AA45">
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>64.19</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>27.44</v>
       </c>
       <c r="AE45">
-        <v>0.13</v>
+        <v>2.56</v>
       </c>
       <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0.38</v>
-      </c>
-      <c r="AH45">
-        <v>27.57</v>
-      </c>
-      <c r="AI45">
-        <v>8.15</v>
-      </c>
-      <c r="AJ45">
-        <v>0.18</v>
-      </c>
-      <c r="AK45">
-        <v>0.18</v>
-      </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45">
-        <v>30.75</v>
-      </c>
-      <c r="AN45">
-        <v>32.66</v>
-      </c>
-      <c r="AO45">
-        <v>0.2</v>
-      </c>
-      <c r="AP45">
-        <v>0.18</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>4.17</v>
-      </c>
-      <c r="AS45">
-        <v>64.19</v>
-      </c>
-      <c r="AT45">
-        <v>27.44</v>
-      </c>
-      <c r="AU45">
-        <v>2.56</v>
-      </c>
-      <c r="AV45">
         <v>1.26</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:32">
       <c r="A46" s="1">
         <v>33429</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>202201</v>
@@ -7129,10 +4921,10 @@
         <v>3038208907</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I46">
         <v>4313037000</v>
@@ -7141,7 +4933,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L46">
         <v>5004963</v>
@@ -7153,37 +4945,37 @@
         <v>484145</v>
       </c>
       <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
         <v>100</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>100</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
       <c r="X46">
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -7195,10 +4987,10 @@
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>38.04</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>61.96</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -7206,64 +4998,16 @@
       <c r="AF46">
         <v>0</v>
       </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <v>100</v>
-      </c>
-      <c r="AN46">
-        <v>0</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
-        <v>38.04</v>
-      </c>
-      <c r="AT46">
-        <v>61.96</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:32">
       <c r="A47" s="1">
         <v>33430</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <v>202201</v>
@@ -7275,10 +5019,10 @@
         <v>2048212685</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I47">
         <v>4313037000</v>
@@ -7287,7 +5031,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K47" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L47">
         <v>11400583</v>
@@ -7299,117 +5043,69 @@
         <v>41816</v>
       </c>
       <c r="O47">
-        <v>66.52</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>33.48</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>33.48</v>
+        <v>1.08</v>
       </c>
       <c r="R47">
-        <v>9.619999999999999</v>
+        <v>10.23</v>
       </c>
       <c r="S47">
-        <v>11.14</v>
+        <v>38.59</v>
       </c>
       <c r="T47">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>30.76</v>
+        <v>1.98</v>
       </c>
       <c r="V47">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="X47">
-        <v>7.43</v>
+        <v>46.74</v>
       </c>
       <c r="Y47">
-        <v>48.41</v>
+        <v>0.22</v>
       </c>
       <c r="Z47">
-        <v>44.16</v>
+        <v>0.2</v>
       </c>
       <c r="AA47">
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>8.42</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>45.01</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>41.54</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>1.08</v>
-      </c>
-      <c r="AH47">
-        <v>10.23</v>
-      </c>
-      <c r="AI47">
-        <v>38.59</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>1.98</v>
-      </c>
-      <c r="AL47">
-        <v>1</v>
-      </c>
-      <c r="AM47">
-        <v>0.39</v>
-      </c>
-      <c r="AN47">
-        <v>46.74</v>
-      </c>
-      <c r="AO47">
-        <v>0.22</v>
-      </c>
-      <c r="AP47">
-        <v>0.2</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>8.42</v>
-      </c>
-      <c r="AS47">
-        <v>45.01</v>
-      </c>
-      <c r="AT47">
-        <v>41.54</v>
-      </c>
-      <c r="AU47">
-        <v>0.73</v>
-      </c>
-      <c r="AV47">
         <v>3.89</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:32">
       <c r="A48" s="1">
         <v>34811</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>202202</v>
@@ -7421,10 +5117,10 @@
         <v>3038208907</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I48">
         <v>4313037000</v>
@@ -7433,7 +5129,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K48" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L48">
         <v>10676826</v>
@@ -7445,7 +5141,7 @@
         <v>376600</v>
       </c>
       <c r="O48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -7454,28 +5150,28 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>31.86</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48">
-        <v>30.96</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>37.17</v>
+        <v>17.72</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>37.97</v>
       </c>
       <c r="X48">
-        <v>37.17</v>
+        <v>44.3</v>
       </c>
       <c r="Y48">
-        <v>62.83</v>
+        <v>17.72</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -7490,72 +5186,24 @@
         <v>0</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>37.97</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>44.3</v>
       </c>
       <c r="AF48">
         <v>0</v>
       </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>17.72</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>37.97</v>
-      </c>
-      <c r="AN48">
-        <v>44.3</v>
-      </c>
-      <c r="AO48">
-        <v>17.72</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>0</v>
-      </c>
-      <c r="AS48">
-        <v>0</v>
-      </c>
-      <c r="AT48">
-        <v>37.97</v>
-      </c>
-      <c r="AU48">
-        <v>44.3</v>
-      </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:32">
       <c r="A49" s="1">
         <v>34812</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D49">
         <v>202202</v>
@@ -7567,10 +5215,10 @@
         <v>2048212685</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I49">
         <v>4313037000</v>
@@ -7579,7 +5227,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K49" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L49">
         <v>2848166</v>
@@ -7591,117 +5239,69 @@
         <v>12689</v>
       </c>
       <c r="O49">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="R49">
-        <v>24.74</v>
+        <v>6.96</v>
       </c>
       <c r="S49">
-        <v>22.01</v>
+        <v>19.12</v>
       </c>
       <c r="T49">
-        <v>19.19</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>21.96</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="V49">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="X49">
-        <v>20.2</v>
+        <v>34.66</v>
       </c>
       <c r="Y49">
-        <v>26.74</v>
+        <v>0.27</v>
       </c>
       <c r="Z49">
-        <v>53.06</v>
+        <v>0.75</v>
       </c>
       <c r="AA49">
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>7.68</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>43.35</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>9.35</v>
       </c>
       <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0.27</v>
-      </c>
-      <c r="AH49">
-        <v>6.96</v>
-      </c>
-      <c r="AI49">
-        <v>19.12</v>
-      </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>30.7</v>
-      </c>
-      <c r="AN49">
-        <v>34.66</v>
-      </c>
-      <c r="AO49">
-        <v>0.27</v>
-      </c>
-      <c r="AP49">
-        <v>0.75</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>7.68</v>
-      </c>
-      <c r="AS49">
-        <v>43.35</v>
-      </c>
-      <c r="AT49">
-        <v>28.9</v>
-      </c>
-      <c r="AU49">
-        <v>9.35</v>
-      </c>
-      <c r="AV49">
         <v>9.699999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:32">
       <c r="A50" s="1">
         <v>36189</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D50">
         <v>202203</v>
@@ -7713,10 +5313,10 @@
         <v>3038208907</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I50">
         <v>4313037000</v>
@@ -7725,7 +5325,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K50" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L50">
         <v>6584546</v>
@@ -7737,7 +5337,7 @@
         <v>650000</v>
       </c>
       <c r="O50">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -7755,99 +5355,51 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>53.85</v>
+        <v>0</v>
       </c>
       <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
         <v>46.15</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
       </c>
       <c r="X50">
         <v>53.85</v>
       </c>
       <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
         <v>46.15</v>
       </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
       <c r="AE50">
-        <v>0</v>
+        <v>53.85</v>
       </c>
       <c r="AF50">
         <v>0</v>
       </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <v>46.15</v>
-      </c>
-      <c r="AN50">
-        <v>53.85</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>0</v>
-      </c>
-      <c r="AQ50">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>0</v>
-      </c>
-      <c r="AS50">
-        <v>0</v>
-      </c>
-      <c r="AT50">
-        <v>46.15</v>
-      </c>
-      <c r="AU50">
-        <v>53.85</v>
-      </c>
-      <c r="AV50">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:32">
       <c r="A51" s="1">
         <v>36190</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D51">
         <v>202203</v>
@@ -7859,10 +5411,10 @@
         <v>2048212685</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I51">
         <v>4313037000</v>
@@ -7871,7 +5423,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K51" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L51">
         <v>12826607</v>
@@ -7883,117 +5435,69 @@
         <v>35778</v>
       </c>
       <c r="O51">
-        <v>42.45</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>57.55</v>
+        <v>0.24</v>
       </c>
       <c r="Q51">
-        <v>28.77</v>
+        <v>2.37</v>
       </c>
       <c r="R51">
-        <v>11.88</v>
+        <v>6.24</v>
       </c>
       <c r="S51">
-        <v>39.43</v>
+        <v>11.62</v>
       </c>
       <c r="T51">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>1.86</v>
+        <v>0.2</v>
       </c>
       <c r="V51">
-        <v>1.05</v>
+        <v>0.76</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>3.23</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="Y51">
-        <v>25.2</v>
+        <v>0.9</v>
       </c>
       <c r="Z51">
-        <v>71.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>20.85</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AF51">
-        <v>0.24</v>
-      </c>
-      <c r="AG51">
-        <v>2.37</v>
-      </c>
-      <c r="AH51">
-        <v>6.24</v>
-      </c>
-      <c r="AI51">
-        <v>11.62</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0.2</v>
-      </c>
-      <c r="AL51">
-        <v>0.76</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-      <c r="AN51">
-        <v>78.56999999999999</v>
-      </c>
-      <c r="AO51">
-        <v>0.9</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
-      <c r="AQ51">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>3.67</v>
-      </c>
-      <c r="AS51">
-        <v>20.85</v>
-      </c>
-      <c r="AT51">
-        <v>68.43000000000001</v>
-      </c>
-      <c r="AU51">
-        <v>3.74</v>
-      </c>
-      <c r="AV51">
         <v>2.41</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:32">
       <c r="A52" s="1">
         <v>37563</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D52">
         <v>202204</v>
@@ -8005,10 +5509,10 @@
         <v>3038208907</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I52">
         <v>4313037000</v>
@@ -8017,7 +5521,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K52" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L52">
         <v>13478442</v>
@@ -8029,7 +5533,7 @@
         <v>456600</v>
       </c>
       <c r="O52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -8038,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>64.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -8047,19 +5551,19 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="V52">
-        <v>35.04</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>35.71</v>
       </c>
       <c r="X52">
-        <v>35.04</v>
+        <v>47.62</v>
       </c>
       <c r="Y52">
-        <v>64.95999999999999</v>
+        <v>16.67</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -8074,72 +5578,24 @@
         <v>0</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>35.71</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>47.62</v>
       </c>
       <c r="AF52">
         <v>0</v>
       </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>16.67</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>35.71</v>
-      </c>
-      <c r="AN52">
-        <v>47.62</v>
-      </c>
-      <c r="AO52">
-        <v>16.67</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AS52">
-        <v>0</v>
-      </c>
-      <c r="AT52">
-        <v>35.71</v>
-      </c>
-      <c r="AU52">
-        <v>47.62</v>
-      </c>
-      <c r="AV52">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:32">
       <c r="A53" s="1">
         <v>37564</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D53">
         <v>202204</v>
@@ -8151,10 +5607,10 @@
         <v>2048212685</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I53">
         <v>4313037000</v>
@@ -8163,7 +5619,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K53" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L53">
         <v>6818537</v>
@@ -8175,117 +5631,69 @@
         <v>23674</v>
       </c>
       <c r="O53">
-        <v>69.72</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>30.28</v>
+        <v>0.31</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="R53">
-        <v>13.13</v>
+        <v>1.83</v>
       </c>
       <c r="S53">
-        <v>31.37</v>
+        <v>21.32</v>
       </c>
       <c r="T53">
-        <v>21.2</v>
+        <v>6.14</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>0.31</v>
       </c>
       <c r="V53">
-        <v>2.02</v>
+        <v>4.22</v>
       </c>
       <c r="W53">
-        <v>30.28</v>
+        <v>3.43</v>
       </c>
       <c r="X53">
-        <v>45.48</v>
+        <v>61.56</v>
       </c>
       <c r="Y53">
-        <v>34.32</v>
+        <v>4.34</v>
       </c>
       <c r="Z53">
-        <v>20.2</v>
+        <v>0.31</v>
       </c>
       <c r="AA53">
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>14.35</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>51.52</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AF53">
-        <v>0.31</v>
-      </c>
-      <c r="AG53">
-        <v>0.86</v>
-      </c>
-      <c r="AH53">
-        <v>1.83</v>
-      </c>
-      <c r="AI53">
-        <v>21.32</v>
-      </c>
-      <c r="AJ53">
-        <v>6.14</v>
-      </c>
-      <c r="AK53">
-        <v>0.31</v>
-      </c>
-      <c r="AL53">
-        <v>4.22</v>
-      </c>
-      <c r="AM53">
-        <v>3.43</v>
-      </c>
-      <c r="AN53">
-        <v>61.56</v>
-      </c>
-      <c r="AO53">
-        <v>4.34</v>
-      </c>
-      <c r="AP53">
-        <v>0.31</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>14.35</v>
-      </c>
-      <c r="AS53">
-        <v>51.52</v>
-      </c>
-      <c r="AT53">
-        <v>19.99</v>
-      </c>
-      <c r="AU53">
-        <v>2.37</v>
-      </c>
-      <c r="AV53">
         <v>7.11</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:32">
       <c r="A54" s="1">
         <v>38947</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D54">
         <v>202205</v>
@@ -8297,10 +5705,10 @@
         <v>3038208907</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I54">
         <v>4313037000</v>
@@ -8309,7 +5717,7 @@
         <v>599.7272727272727</v>
       </c>
       <c r="K54" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L54">
         <v>12771229</v>
@@ -8321,40 +5729,40 @@
         <v>390500</v>
       </c>
       <c r="O54">
-        <v>65.86</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>34.14</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>34.14</v>
+        <v>1.47</v>
       </c>
       <c r="R54">
-        <v>23.9</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>40.67</v>
+        <v>0</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>59.31</v>
       </c>
       <c r="X54">
-        <v>12.93</v>
+        <v>39.22</v>
       </c>
       <c r="Y54">
-        <v>85.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z54">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -8363,75 +5771,27 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>31.86</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>39.22</v>
       </c>
       <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>1.47</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>59.31</v>
-      </c>
-      <c r="AN54">
-        <v>39.22</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>0</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>0</v>
-      </c>
-      <c r="AS54">
-        <v>1.47</v>
-      </c>
-      <c r="AT54">
-        <v>31.86</v>
-      </c>
-      <c r="AU54">
-        <v>39.22</v>
-      </c>
-      <c r="AV54">
         <v>27.45</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:32">
       <c r="A55" s="1">
         <v>38948</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>202205</v>
@@ -8443,10 +5803,10 @@
         <v>2048212685</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H55" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I55">
         <v>4313037000</v>
@@ -8455,7 +5815,7 @@
         <v>533.6424242424242</v>
       </c>
       <c r="K55" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L55">
         <v>10585605</v>
@@ -8467,105 +5827,57 @@
         <v>25521</v>
       </c>
       <c r="O55">
-        <v>65.28</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>34.72</v>
+        <v>0.57</v>
       </c>
       <c r="Q55">
-        <v>34.72</v>
+        <v>0.79</v>
       </c>
       <c r="R55">
-        <v>12.15</v>
+        <v>19.45</v>
       </c>
       <c r="S55">
-        <v>19.77</v>
+        <v>10.55</v>
       </c>
       <c r="T55">
-        <v>22.72</v>
+        <v>0.5</v>
       </c>
       <c r="U55">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>9.52</v>
+        <v>13.71</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="X55">
-        <v>21.99</v>
+        <v>50.44</v>
       </c>
       <c r="Y55">
-        <v>59.14</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>18.87</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>30.77</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>45.32</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="AF55">
-        <v>0.57</v>
-      </c>
-      <c r="AG55">
-        <v>0.79</v>
-      </c>
-      <c r="AH55">
-        <v>19.45</v>
-      </c>
-      <c r="AI55">
-        <v>10.55</v>
-      </c>
-      <c r="AJ55">
-        <v>0.5</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>13.71</v>
-      </c>
-      <c r="AM55">
-        <v>3.99</v>
-      </c>
-      <c r="AN55">
-        <v>50.44</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>10.79</v>
-      </c>
-      <c r="AS55">
-        <v>30.77</v>
-      </c>
-      <c r="AT55">
-        <v>45.32</v>
-      </c>
-      <c r="AU55">
-        <v>3.73</v>
-      </c>
-      <c r="AV55">
         <v>9.390000000000001</v>
       </c>
     </row>
